--- a/var/excel/ads.xlsx
+++ b/var/excel/ads.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Дата</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Название группы 3</t>
+  </si>
+  <si>
+    <t>Новое название объявления 2</t>
   </si>
   <si>
     <t>318.40</t>
@@ -106,14 +109,7 @@
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,146 +565,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1039,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1051,7 +1047,7 @@
     <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="14.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="27.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="31.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="20.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="12.2857142857143" customWidth="1"/>
@@ -1199,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1257,7 +1253,7 @@
         <v>45671</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1269,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>2</v>
